--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315930.362721447</v>
+        <v>1286838.895210908</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1848583.332998798</v>
+        <v>1861185.768789561</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4215871.67084186</v>
+        <v>2357862.325109814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9912504.023419496</v>
+        <v>10777621.75466626</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>306.8036772071799</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>293.4512054551346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>333.5566684523981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>186.8225637784164</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>196.6067647623556</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>145.1312027198408</v>
       </c>
       <c r="G8" t="n">
-        <v>283.0641904178262</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>92.79249831871927</v>
       </c>
       <c r="U11" t="n">
-        <v>81.12200652863734</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.50170169071325</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.42807039329344</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878414</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.71468097881355</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.7137091823314244</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>223.5067433582058</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0.390219850907597</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.014038326233</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496628</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.3345997681973</v>
+        <v>362.9697066962588</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.19463994942718</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1028265769112</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1082018880815</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>96.89780243894165</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>34.71884533515476</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.556718218862088</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S18" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.4882862561572</v>
+        <v>137.7488816754979</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>309.0773614149405</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.04675908158659</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>136.2815479178936</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>338.7170918417381</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>96.89780243894165</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71884533515475</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.556718218862073</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6595749469737</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.4286075662164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.813850247729</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2568614883001</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>78.75501667751334</v>
+        <v>183.6661598779772</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>88.29926233767077</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>281.9740713710894</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.0424879565123</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>25.15992137229781</v>
       </c>
       <c r="U37" t="n">
-        <v>80.16697784769887</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>62.09617589318577</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>29.09049841395925</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.6855279182297</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>29.09049841395925</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.3919303875161</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="C2" t="n">
-        <v>920.3919303875161</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>935.2754701767647</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>517.3116620749515</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.13110242745</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.13110242745</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.13110242745</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1306.991770451638</v>
+        <v>1704.527073573123</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,10 +4430,10 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
         <v>393.6767897220517</v>
@@ -4488,52 +4488,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1700.479318410388</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C5" t="n">
-        <v>1700.479318410388</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="D5" t="n">
-        <v>1700.479318410388</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>667.5619510536199</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>256.5760462640123</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>242.6526422026032</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1700.479318410388</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>336.2769833124028</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1273.280804219765</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="C8" t="n">
-        <v>904.3182872793534</v>
+        <v>1843.218611560565</v>
       </c>
       <c r="D8" t="n">
-        <v>904.3182872793534</v>
+        <v>1484.952912953815</v>
       </c>
       <c r="E8" t="n">
-        <v>904.3182872793534</v>
+        <v>1099.164660355571</v>
       </c>
       <c r="F8" t="n">
-        <v>493.3323824897458</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.880644283887</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>2142.136886587251</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1773.17436964684</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1414.908671040089</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1029.120418441845</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>618.1345136522372</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>200.6050072468649</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>200.6050072468649</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.7775870444384</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>564.1738308751509</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1048.666806192618</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.365138508505</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2154.42325326017</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377763</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.698445127825</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.12236969963</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.12236969963</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.12236969963</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3100.392573418095</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2846.665532191902</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2515.602644848331</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2515.602644848331</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>2142.136886587251</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>2142.136886587251</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.3354281348223</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.8008701617073</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>160.6567723009147</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>452.680350669341</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>906.7464860204211</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1027.551457586949</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1640.511372800296</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2096.036470465078</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2475.771104479179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="C13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="D13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="E13" t="n">
-        <v>68.80629594037813</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="F13" t="n">
-        <v>68.80629594037813</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="G13" t="n">
-        <v>68.80629594037813</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="H13" t="n">
-        <v>68.80629594037813</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.3679338555483</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>298.3287695220693</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>473.1567265041793</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>649.2622818508054</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>795.9079702090229</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961006</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>897.8680081961006</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>897.8680081961006</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>897.1470898301093</v>
       </c>
       <c r="T13" t="n">
-        <v>471.4038777286581</v>
+        <v>897.1470898301093</v>
       </c>
       <c r="U13" t="n">
-        <v>471.4038777286581</v>
+        <v>607.9841056368401</v>
       </c>
       <c r="V13" t="n">
-        <v>216.7193895227713</v>
+        <v>353.2996174309532</v>
       </c>
       <c r="W13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="X13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7193895227713</v>
+        <v>63.8824473939926</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>433.1733450557858</v>
+        <v>1708.944084447592</v>
       </c>
       <c r="C14" t="n">
-        <v>433.1733450557858</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="D14" t="n">
-        <v>433.1733450557858</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="E14" t="n">
-        <v>433.1733450557858</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
-        <v>433.1733450557858</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G14" t="n">
-        <v>433.1733450557858</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>3542.980557362291</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.146930626913</v>
+        <v>3211.91767001872</v>
       </c>
       <c r="W14" t="n">
-        <v>1583.378275356799</v>
+        <v>2859.149014748606</v>
       </c>
       <c r="X14" t="n">
-        <v>1209.912517095719</v>
+        <v>2485.683256487526</v>
       </c>
       <c r="Y14" t="n">
-        <v>819.7731851199076</v>
+        <v>2095.543924511714</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>540.6497974481231</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1181.195146915227</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1854.400839168009</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2403.836847920731</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>530.0898119577558</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2028.694067724037</v>
+        <v>1964.630235431593</v>
       </c>
       <c r="C17" t="n">
-        <v>1659.731550783625</v>
+        <v>1595.667718491181</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.465852176875</v>
+        <v>1237.402019884431</v>
       </c>
       <c r="E17" t="n">
-        <v>915.6775995786304</v>
+        <v>851.6137672861864</v>
       </c>
       <c r="F17" t="n">
-        <v>504.6916947890229</v>
+        <v>440.6278624965789</v>
       </c>
       <c r="G17" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H17" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
-        <v>325.7601138906743</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>802.5577892093647</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.34409431891</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2179.286948567235</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2909.457586919648</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
-        <v>3553.749377683567</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>4065.963131975638</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4373.392570021671</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R17" t="n">
-        <v>4409.604953178554</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S17" t="n">
-        <v>4328.600266360951</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T17" t="n">
-        <v>4116.375189010535</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="U17" t="n">
-        <v>3862.730540638735</v>
+        <v>3445.898053076177</v>
       </c>
       <c r="V17" t="n">
-        <v>3531.667653295165</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="W17" t="n">
-        <v>3178.89899802505</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="X17" t="n">
-        <v>2805.433239763971</v>
+        <v>2741.369407471526</v>
       </c>
       <c r="Y17" t="n">
-        <v>2415.293907788159</v>
+        <v>2351.230075495715</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>235.9926015077587</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K18" t="n">
-        <v>615.2280446173534</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.292889253092</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1364.943052608665</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N18" t="n">
-        <v>1643.821094042019</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>1876.720223507067</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.58738236298</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407.1164499269903</v>
+        <v>382.0682625752324</v>
       </c>
       <c r="C19" t="n">
-        <v>238.1802669990834</v>
+        <v>213.1320796473255</v>
       </c>
       <c r="D19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I19" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J19" t="n">
-        <v>88.95549972113504</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K19" t="n">
-        <v>220.0468382225164</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>443.3250529390615</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M19" t="n">
-        <v>689.1297475364073</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N19" t="n">
-        <v>934.5243723185877</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O19" t="n">
-        <v>1145.169731061407</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P19" t="n">
-        <v>1301.89254334722</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W19" t="n">
-        <v>1037.547044798778</v>
+        <v>784.5093065490023</v>
       </c>
       <c r="X19" t="n">
-        <v>809.5574939007602</v>
+        <v>784.5093065490023</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.76491475723</v>
+        <v>563.7167274054722</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2437.910351053862</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C20" t="n">
-        <v>2068.94783411345</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.6821355067</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>1324.893882908456</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>913.9079781188482</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>497.4083823933964</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H20" t="n">
-        <v>185.2090274288101</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I20" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>325.7601138906747</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K20" t="n">
-        <v>802.5577892093651</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.34409431891</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
-        <v>2179.286948567235</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2909.457586919648</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
-        <v>3553.749377683568</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4065.963131975639</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4373.392570021671</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R20" t="n">
-        <v>4409.604953178554</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S20" t="n">
-        <v>4409.604953178554</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T20" t="n">
-        <v>4409.604953178554</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U20" t="n">
-        <v>4271.94682396856</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V20" t="n">
-        <v>3940.88393662499</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W20" t="n">
-        <v>3588.115281354876</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="X20" t="n">
-        <v>3214.649523093796</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="Y20" t="n">
-        <v>2824.510191117984</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>235.9926015077587</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K21" t="n">
-        <v>615.2280446173534</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L21" t="n">
-        <v>1186.561294725517</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1444.21145808109</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
-        <v>1723.089499514444</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2084.696738365558</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2567.563897221471</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.4547845531536</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="C22" t="n">
-        <v>701.4547845531536</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="D22" t="n">
-        <v>551.3381451408178</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E22" t="n">
-        <v>403.4250515584247</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F22" t="n">
-        <v>256.5351040605143</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G22" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>88.19209906357108</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>88.95549972113506</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
-        <v>220.0468382225164</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>443.3250529390615</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M22" t="n">
-        <v>689.1297475364073</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N22" t="n">
-        <v>934.5243723185877</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O22" t="n">
-        <v>1145.169731061407</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P22" t="n">
-        <v>1301.89254334722</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1326.964214835738</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1208.349459718348</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1005.507186740844</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>781.0053064496317</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>701.4547845531536</v>
+        <v>888.4051029718446</v>
       </c>
       <c r="V22" t="n">
-        <v>701.4547845531536</v>
+        <v>888.4051029718446</v>
       </c>
       <c r="W22" t="n">
-        <v>701.4547845531536</v>
+        <v>598.9879329348839</v>
       </c>
       <c r="X22" t="n">
-        <v>701.4547845531536</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="Y22" t="n">
-        <v>701.4547845531536</v>
+        <v>370.9983820368666</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5998,10 +5998,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8655562905255</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
@@ -7031,13 +7031,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.7235151749151</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C37" t="n">
-        <v>563.7235151749151</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1473.502208565682</v>
       </c>
       <c r="U37" t="n">
-        <v>1194.154110046702</v>
+        <v>1184.373569779241</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.154110046702</v>
+        <v>929.6890815733536</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.154110046702</v>
+        <v>640.271911536393</v>
       </c>
       <c r="X37" t="n">
-        <v>966.1645591486849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.3719800051548</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7183,10 +7183,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4633.687647031309</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4379.003158825422</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4089.585988788462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3861.596437890445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,13 +7414,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>328.8766843813097</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C43" t="n">
-        <v>159.9405014534028</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>159.9405014534028</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>159.9405014534028</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>159.9405014534028</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>731.3177283550796</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y43" t="n">
-        <v>510.5251492115494</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1219.892948359297</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>965.2084601534104</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>675.7912901164498</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184324</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>415.509052552801</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>354.6726272921184</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>122.2963999168128</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747166</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>290.7712488666667</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>48.1056061726409</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.1056061726409</v>
       </c>
       <c r="O21" t="n">
-        <v>130.0081912990565</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>34.30105301500026</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>48.37370161986365</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.82580834555246</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7199796029687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>319.5194584381685</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>27.47001067514618</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>164.6180294004008</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>121.7736779195302</v>
       </c>
       <c r="U11" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>120.2509408135247</v>
+        <v>129.1656554187738</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>31.56442760231866</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12.97296450542773</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>137.9932954615214</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>208.0707247077954</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>100.4160294061513</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.764566371393</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>1.906738228337474</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.94719724967803</v>
       </c>
       <c r="H17" t="n">
-        <v>309.0773614149405</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>96.04675908158661</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.18899072847317</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1271867620551745</v>
+        <v>10.86659134271443</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>115.4115131709637</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.4286075662164</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>200.813850247729</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>222.2568614883001</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2464072976826</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.3836306779003</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1028265769112</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>114.8266539701878</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>47.52084681431546</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>115.4115131709637</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>207.4913906201693</v>
+        <v>102.5944947801198</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>198.2237359989202</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.263281027487949</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.4805103800787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>10.65497486614709</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>196.3876396860914</v>
       </c>
       <c r="U37" t="n">
-        <v>206.0703745508785</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.3973925701918</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>196.6191569750779</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>231.5518244803476</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>196.6191569750779</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720539.9926437238</v>
+        <v>777120.8712276133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720539.9926437237</v>
+        <v>834666.8331522862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>911213.2759586659</v>
+        <v>834666.8331522864</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>911213.2759586661</v>
+        <v>834666.8331522866</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173334</v>
+        <v>344562.5801003056</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173334</v>
+        <v>371509.2212626559</v>
       </c>
       <c r="G2" t="n">
-        <v>407353.8765083121</v>
+        <v>371509.2212626559</v>
       </c>
       <c r="H2" t="n">
-        <v>407353.8765083121</v>
+        <v>371509.2212626559</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114797</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.0575261891</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>122192.163835931</v>
       </c>
       <c r="G3" t="n">
-        <v>397686.3454566929</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99295.86104592102</v>
+        <v>255532.1595990991</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30950.65265136693</v>
       </c>
       <c r="O3" t="n">
-        <v>103026.0539211865</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496504</v>
+        <v>25923.68944646593</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="G4" t="n">
-        <v>23170.68752577161</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="H4" t="n">
-        <v>23170.68752577162</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.03032849803</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
-        <v>83121.46425552094</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
-        <v>83121.46425552094</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871661</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381845.9233655855</v>
+        <v>-386886.8516391225</v>
       </c>
       <c r="C6" t="n">
-        <v>208121.9558489591</v>
+        <v>203081.027575422</v>
       </c>
       <c r="D6" t="n">
-        <v>208121.9558489589</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="E6" t="n">
-        <v>241749.5558489588</v>
+        <v>131635.6940116502</v>
       </c>
       <c r="F6" t="n">
-        <v>241749.5558489589</v>
+        <v>151765.4667375662</v>
       </c>
       <c r="G6" t="n">
-        <v>-96624.62072967335</v>
+        <v>273957.6305734972</v>
       </c>
       <c r="H6" t="n">
-        <v>301061.7247270195</v>
+        <v>273957.6305734972</v>
       </c>
       <c r="I6" t="n">
-        <v>216674.1711299713</v>
+        <v>59463.28131707155</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832994</v>
+        <v>138572.2217235776</v>
       </c>
       <c r="K6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161709</v>
       </c>
       <c r="L6" t="n">
-        <v>315970.0321758925</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="M6" t="n">
-        <v>315970.0321758924</v>
+        <v>284033.5086810405</v>
       </c>
       <c r="N6" t="n">
-        <v>315970.0321758924</v>
+        <v>284044.7882648038</v>
       </c>
       <c r="O6" t="n">
-        <v>212943.9782547058</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="P6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161707</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>484.6958857368653</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>738.3242645507761</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="H3" t="n">
-        <v>738.3242645507762</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>798.5305924249075</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="G4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="H4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197787</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>108.7802146011983</v>
       </c>
       <c r="G3" t="n">
-        <v>360.5806003336895</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92.05814090332399</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703519</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>126.366846657849</v>
       </c>
       <c r="G4" t="n">
-        <v>428.1139655400829</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.8124049589344</v>
+        <v>290.3162041708164</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703521</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578488</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400831</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703519</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.366846657849</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400829</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17.11909555717722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>137.1002089859408</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15.53877418766328</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>261.7448430218707</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816542</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.95534367759867</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>75.12055531606232</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449619</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>247.8598362826162</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>307.4920441745543</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>342.1441465181642</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.6803965095205</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686322</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525363</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527313</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>122.3991072660035</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>44.40204018584451</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>8.52967332588192</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053234</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.042553414603824</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>10.06887113577903</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>35.89493116070182</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>98.49843466658318</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450393</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.366696447203</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265915</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>271.1507672482111</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>248.0499784298843</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>199.081976162374</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.081028853639</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>64.72976375934969</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599644</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>4.202221877284708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0685890404344621</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.874041761164839</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>7.771025840174665</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848444</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>61.79475251435412</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.5477609789694</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.9461723826344</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796847</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607977</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>123.5418300235538</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.711378095791</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>73.18907874626666</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>39.30009591564811</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684542</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431584</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444582</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.968137746937791</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39744070082666</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I17" t="n">
-        <v>114.4291304888193</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J17" t="n">
-        <v>251.9169810991616</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>377.5582519270383</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>468.3943974998859</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M17" t="n">
-        <v>521.1790171569908</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>529.6122385304778</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O17" t="n">
-        <v>500.0978188093652</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P17" t="n">
-        <v>426.8219181818383</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5254851196286</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>186.4472827460812</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>67.63643890834499</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>12.99302298722019</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2374510197550233</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.588093701109217</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>15.3376417975548</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>54.67778751626032</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J18" t="n">
-        <v>150.0400281385686</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>256.4423061128861</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>344.8183275149639</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>402.3867241801729</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N18" t="n">
-        <v>413.0367034301554</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O18" t="n">
-        <v>377.8478903687354</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>303.2562436793556</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.7187678819414</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>98.60111593378105</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S18" t="n">
-        <v>29.49814396577863</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T18" t="n">
-        <v>6.401132067190217</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1044798487571853</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.331404411485006</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>11.83739558574852</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I19" t="n">
-        <v>40.03896175629455</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J19" t="n">
-        <v>94.13029189198991</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6849852616216</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>197.9435249584163</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M19" t="n">
-        <v>208.7036933385087</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N19" t="n">
-        <v>203.7411859866102</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>188.1879617251716</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P19" t="n">
-        <v>161.0273117308774</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>111.4869639471672</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R19" t="n">
-        <v>59.86478381095307</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S19" t="n">
-        <v>23.20274778924323</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>5.688727939981387</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07262205880827313</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.968137746937792</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39744070082666</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>114.4291304888193</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
-        <v>251.9169810991616</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>377.5582519270384</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>468.3943974998859</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
-        <v>521.1790171569909</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>529.612238530478</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>500.0978188093652</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
-        <v>426.8219181818384</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.5254851196287</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>186.4472827460812</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>67.636438908345</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>12.99302298722019</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2374510197550233</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588093701109217</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>15.33764179755481</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>54.67778751626032</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
-        <v>150.0400281385686</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>256.4423061128861</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>344.818327514964</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>402.386724180173</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>413.0367034301555</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
-        <v>377.8478903687354</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>303.2562436793556</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.7187678819414</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>98.60111593378106</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
-        <v>29.49814396577863</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>6.401132067190218</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1044798487571854</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.331404411485006</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>11.83739558574852</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
-        <v>40.03896175629456</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>94.13029189198993</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
-        <v>154.6849852616216</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>197.9435249584163</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M22" t="n">
-        <v>208.7036933385087</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N22" t="n">
-        <v>203.7411859866102</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>188.1879617251717</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P22" t="n">
-        <v>161.0273117308774</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.4869639471672</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>59.86478381095308</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
-        <v>23.20274778924324</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>5.688727939981388</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07262205880827315</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>153.4294339903494</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>351.9153978088004</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>489.3868437550175</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>561.311446783724</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>555.6142573249138</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096908</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687494</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.4282066381865</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>97.75184334032532</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>294.973311483259</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>458.652661970788</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>122.0252238045732</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>619.1514295084313</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>460.1263612775582</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>383.5703373879809</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>203.1765425034665</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.2782691530866</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429505</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.5938959415253</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.8843993400263</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375935</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.9899373606845</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>138.6157555714074</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>232.0839024696393</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>239.9676917445491</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>481.6138134532225</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>650.2891970803491</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M17" t="n">
-        <v>740.3463174225506</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N17" t="n">
-        <v>737.5460993458711</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O17" t="n">
-        <v>650.7997886504238</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P17" t="n">
-        <v>517.3876305980514</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.5347859050838</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>36.5781648049315</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.2934368123107</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K18" t="n">
-        <v>383.0661041511057</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L18" t="n">
-        <v>497.0351966017564</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>260.2526902581546</v>
+        <v>181.3104407622263</v>
       </c>
       <c r="N18" t="n">
-        <v>281.6949913468221</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2516459242909</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>487.7446049049625</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>272.814281531769</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7711117753171379</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>132.4154934357387</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>225.5335502187324</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>248.2875703003493</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N19" t="n">
-        <v>247.8733583658388</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>212.7730896392113</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P19" t="n">
-        <v>158.3058709957709</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.3249206954728</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.9676917445491</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>481.6138134532226</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>650.2891970803491</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>740.3463174225507</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>737.5460993458712</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>650.7997886504238</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
-        <v>517.3876305980516</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.5347859050839</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>36.57816480493153</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.2934368123107</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K21" t="n">
-        <v>383.0661041511057</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
-        <v>577.104293038549</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>260.2526902581546</v>
+        <v>181.3104407622263</v>
       </c>
       <c r="N21" t="n">
-        <v>281.6949913468221</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O21" t="n">
-        <v>365.2598372233475</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>487.7446049049626</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.73699379591991</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7711117753171521</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>132.4154934357387</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>225.5335502187324</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>248.2875703003493</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N22" t="n">
-        <v>247.8733583658388</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>212.7730896392113</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P22" t="n">
-        <v>158.3058709957709</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.32492069547281</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
